--- a/M5_DVM_data/M5Stack_DVM_parts_list.xlsx
+++ b/M5_DVM_data/M5Stack_DVM_parts_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\M5Stack_DVM\M5_DVM_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2B8D51-2F5C-44CA-9054-C1EEF3D71528}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B78ACB-5A1D-4A63-8733-9E65258FB58F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14760" yWindow="6300" windowWidth="23070" windowHeight="19215" xr2:uid="{E37D101E-E1F8-4652-8D35-E2E1E47B88E9}"/>
+    <workbookView xWindow="14760" yWindow="1785" windowWidth="23070" windowHeight="19215" xr2:uid="{E37D101E-E1F8-4652-8D35-E2E1E47B88E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>M5Stack_DVK parts list</t>
     <phoneticPr fontId="1"/>
@@ -216,6 +216,28 @@
   </si>
   <si>
     <t>RK73B1JTTD304J</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M5Stack Pin header and socket</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.switch-science.com/catalog/3654/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10個入り</t>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Comment</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -249,12 +271,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -289,7 +317,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -300,6 +328,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -617,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB845CB-693B-47BD-9A1E-C2D1D4B0ED69}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -631,14 +668,15 @@
     <col min="4" max="4" width="16.25" customWidth="1"/>
     <col min="5" max="5" width="15.125" customWidth="1"/>
     <col min="6" max="6" width="84.125" customWidth="1"/>
+    <col min="7" max="7" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -657,8 +695,11 @@
       <c r="F2" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -677,8 +718,9 @@
       <c r="F3" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -697,8 +739,9 @@
       <c r="F4" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -718,8 +761,9 @@
       <c r="F5" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -738,8 +782,9 @@
       <c r="F6" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -758,8 +803,9 @@
       <c r="F7" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -778,8 +824,9 @@
       <c r="F8" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -798,8 +845,9 @@
       <c r="F9" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -818,8 +866,9 @@
       <c r="F10" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -832,8 +881,9 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -846,16 +896,18 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -870,22 +922,43 @@
       <c r="F14" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4">
         <v>2</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4">
         <f>374*C15</f>
         <v>748</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="5" t="s">
         <v>30</v>
+      </c>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1">
+        <v>1012</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -901,8 +974,9 @@
     <hyperlink ref="F9" r:id="rId8" xr:uid="{7615EA92-554B-4A07-96AF-6F85D5CC268A}"/>
     <hyperlink ref="F8" r:id="rId9" xr:uid="{3001AE74-F15D-4C4C-9FD2-46AF3A60082D}"/>
     <hyperlink ref="F10" r:id="rId10" xr:uid="{CF409B03-F5E7-47C1-B1EE-C0F509036E3A}"/>
+    <hyperlink ref="F16" r:id="rId11" xr:uid="{3FB01D6B-5F87-4D68-8840-587FEC288F5F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>